--- a/Spatial/RANOVA_Number_of_PCs_multcompare_10.xlsx
+++ b/Spatial/RANOVA_Number_of_PCs_multcompare_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20833CA-955F-431D-B10D-0E65A14868B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8678DE4B-0467-46D9-B2BC-87A8EB0E6473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{5AB80354-20EA-419B-ACF4-E06C5115B6CF}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15330D53-1855-4263-9E03-945989E64F89}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,7 +419,8 @@
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -459,19 +460,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2.1102366391187219</v>
+        <v>2.1102366391187228</v>
       </c>
       <c r="E2">
-        <v>0.69588954822192606</v>
+        <v>0.8497261027458114</v>
       </c>
       <c r="F2">
-        <v>1.6249237251455422E-2</v>
+        <v>6.8968408071619969E-2</v>
       </c>
       <c r="G2">
-        <v>0.50551246327360144</v>
+        <v>-0.15671676168045945</v>
       </c>
       <c r="H2">
-        <v>3.7149608149638427</v>
+        <v>4.3771900399179051</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -479,134 +480,134 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>-2.1102366391187219</v>
+        <v>0.52278148139158964</v>
       </c>
       <c r="E3">
-        <v>0.69588954822192606</v>
+        <v>0.8497261027458114</v>
       </c>
       <c r="F3">
-        <v>1.6249237251455422E-2</v>
+        <v>0.8146815106314651</v>
       </c>
       <c r="G3">
-        <v>-3.7149608149638427</v>
+        <v>-1.7441719194075926</v>
       </c>
       <c r="H3">
-        <v>-0.50551246327360144</v>
+        <v>2.7897348821907721</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1.373896962218542</v>
+        <v>-2.1102366391187228</v>
       </c>
       <c r="E4">
-        <v>0.83203614410332594</v>
+        <v>0.8497261027458114</v>
       </c>
       <c r="F4">
-        <v>0.13729325308560839</v>
+        <v>6.8968408071619969E-2</v>
       </c>
       <c r="G4">
-        <v>-0.54478182672305731</v>
+        <v>-4.3771900399179051</v>
       </c>
       <c r="H4">
-        <v>3.2925757511601415</v>
+        <v>0.15671676168045945</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>-1.373896962218542</v>
+        <v>-1.5874551577271334</v>
       </c>
       <c r="E5">
-        <v>0.83203614410332594</v>
+        <v>0.8497261027458114</v>
       </c>
       <c r="F5">
-        <v>0.13729325308560839</v>
+        <v>0.19015902107933691</v>
       </c>
       <c r="G5">
-        <v>-3.2925757511601415</v>
+        <v>-3.8544085585263157</v>
       </c>
       <c r="H5">
-        <v>0.54478182672305731</v>
+        <v>0.67949824307204887</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3.8234212537380738</v>
+        <v>-0.52278148139158964</v>
       </c>
       <c r="E6">
-        <v>2.3087053175592609</v>
+        <v>0.8497261027458114</v>
       </c>
       <c r="F6">
-        <v>0.13629599102494377</v>
+        <v>0.8146815106314651</v>
       </c>
       <c r="G6">
-        <v>-1.5004627555214292</v>
+        <v>-2.7897348821907721</v>
       </c>
       <c r="H6">
-        <v>9.1473052629975768</v>
+        <v>1.7441719194075926</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>-3.8234212537380738</v>
+        <v>1.5874551577271334</v>
       </c>
       <c r="E7">
-        <v>2.3087053175592609</v>
+        <v>0.8497261027458114</v>
       </c>
       <c r="F7">
-        <v>0.13629599102494377</v>
+        <v>0.19015902107933691</v>
       </c>
       <c r="G7">
-        <v>-9.1473052629975768</v>
+        <v>-0.67949824307204887</v>
       </c>
       <c r="H7">
-        <v>1.5004627555214292</v>
+        <v>3.8544085585263157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -615,45 +616,461 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3.7580104888534094</v>
+        <v>1.373896962218542</v>
       </c>
       <c r="E8">
-        <v>2.3534797664409188</v>
+        <v>0.73486302180123886</v>
       </c>
       <c r="F8">
-        <v>0.14897964375474426</v>
+        <v>0.18974807618287326</v>
       </c>
       <c r="G8">
-        <v>-1.6691235846786845</v>
+        <v>-0.58661739765657472</v>
       </c>
       <c r="H8">
-        <v>9.1851445623855028</v>
+        <v>3.3344113220936586</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.35639746954744334</v>
+      </c>
+      <c r="E9">
+        <v>0.73486302180123886</v>
+      </c>
+      <c r="F9">
+        <v>0.87965545106783427</v>
+      </c>
+      <c r="G9">
+        <v>-1.6041168903276732</v>
+      </c>
+      <c r="H9">
+        <v>2.3169118294225601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-1.373896962218542</v>
+      </c>
+      <c r="E10">
+        <v>0.73486302180123886</v>
+      </c>
+      <c r="F10">
+        <v>0.18974807618287326</v>
+      </c>
+      <c r="G10">
+        <v>-3.3344113220936586</v>
+      </c>
+      <c r="H10">
+        <v>0.58661739765657472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>-1.0174994926710987</v>
+      </c>
+      <c r="E11">
+        <v>0.73486302180123886</v>
+      </c>
+      <c r="F11">
+        <v>0.37907218052955438</v>
+      </c>
+      <c r="G11">
+        <v>-2.9780138525462156</v>
+      </c>
+      <c r="H11">
+        <v>0.94301486720401795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-0.35639746954744334</v>
+      </c>
+      <c r="E12">
+        <v>0.73486302180123886</v>
+      </c>
+      <c r="F12">
+        <v>0.87965545106783427</v>
+      </c>
+      <c r="G12">
+        <v>-2.3169118294225601</v>
+      </c>
+      <c r="H12">
+        <v>1.6041168903276732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1.0174994926710987</v>
+      </c>
+      <c r="E13">
+        <v>0.73486302180123886</v>
+      </c>
+      <c r="F13">
+        <v>0.37907218052955438</v>
+      </c>
+      <c r="G13">
+        <v>-0.94301486720401795</v>
+      </c>
+      <c r="H13">
+        <v>2.9780138525462156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3.8234212537380747</v>
+      </c>
+      <c r="E14">
+        <v>2.1762542186894049</v>
+      </c>
+      <c r="F14">
+        <v>0.22524435702409096</v>
+      </c>
+      <c r="G14">
+        <v>-1.9825283176820232</v>
+      </c>
+      <c r="H14">
+        <v>9.6293708251581727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.35870122805471993</v>
+      </c>
+      <c r="E15">
+        <v>2.1762542186894049</v>
+      </c>
+      <c r="F15">
+        <v>0.98515286666210011</v>
+      </c>
+      <c r="G15">
+        <v>-5.447248343365378</v>
+      </c>
+      <c r="H15">
+        <v>6.1646507994748179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>-3.8234212537380747</v>
+      </c>
+      <c r="E16">
+        <v>2.1762542186894049</v>
+      </c>
+      <c r="F16">
+        <v>0.22524435702409096</v>
+      </c>
+      <c r="G16">
+        <v>-9.6293708251581727</v>
+      </c>
+      <c r="H16">
+        <v>1.9825283176820232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>-3.4647200256833548</v>
+      </c>
+      <c r="E17">
+        <v>2.1762542186894049</v>
+      </c>
+      <c r="F17">
+        <v>0.28631095449264743</v>
+      </c>
+      <c r="G17">
+        <v>-9.2706695971034527</v>
+      </c>
+      <c r="H17">
+        <v>2.3412295457367431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>-0.35870122805471993</v>
+      </c>
+      <c r="E18">
+        <v>2.1762542186894049</v>
+      </c>
+      <c r="F18">
+        <v>0.98515286666210011</v>
+      </c>
+      <c r="G18">
+        <v>-6.1646507994748179</v>
+      </c>
+      <c r="H18">
+        <v>5.447248343365378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3.4647200256833548</v>
+      </c>
+      <c r="E19">
+        <v>2.1762542186894049</v>
+      </c>
+      <c r="F19">
+        <v>0.28631095449264743</v>
+      </c>
+      <c r="G19">
+        <v>-2.3412295457367431</v>
+      </c>
+      <c r="H19">
+        <v>9.2706695971034527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-3.7580104888534094</v>
-      </c>
-      <c r="E9">
-        <v>2.3534797664409188</v>
-      </c>
-      <c r="F9">
-        <v>0.14897964375474426</v>
-      </c>
-      <c r="G9">
-        <v>-9.1851445623855028</v>
-      </c>
-      <c r="H9">
-        <v>1.6691235846786845</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3.7580104888534116</v>
+      </c>
+      <c r="E20">
+        <v>2.1581169905090869</v>
+      </c>
+      <c r="F20">
+        <v>0.2305305965525265</v>
+      </c>
+      <c r="G20">
+        <v>-1.9995514303907918</v>
+      </c>
+      <c r="H20">
+        <v>9.515572408097615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1.1561330374315357</v>
+      </c>
+      <c r="E21">
+        <v>2.1581169905090869</v>
+      </c>
+      <c r="F21">
+        <v>0.85549983633793403</v>
+      </c>
+      <c r="G21">
+        <v>-4.6014288818126676</v>
+      </c>
+      <c r="H21">
+        <v>6.9136949566757391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>-3.7580104888534116</v>
+      </c>
+      <c r="E22">
+        <v>2.1581169905090869</v>
+      </c>
+      <c r="F22">
+        <v>0.2305305965525265</v>
+      </c>
+      <c r="G22">
+        <v>-9.515572408097615</v>
+      </c>
+      <c r="H22">
+        <v>1.9995514303907918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>-2.6018774514218759</v>
+      </c>
+      <c r="E23">
+        <v>2.1581169905090869</v>
+      </c>
+      <c r="F23">
+        <v>0.47236601791315092</v>
+      </c>
+      <c r="G23">
+        <v>-8.3594393706660792</v>
+      </c>
+      <c r="H23">
+        <v>3.1556844678223275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-1.1561330374315357</v>
+      </c>
+      <c r="E24">
+        <v>2.1581169905090869</v>
+      </c>
+      <c r="F24">
+        <v>0.85549983633793403</v>
+      </c>
+      <c r="G24">
+        <v>-6.9136949566757391</v>
+      </c>
+      <c r="H24">
+        <v>4.6014288818126676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2.6018774514218759</v>
+      </c>
+      <c r="E25">
+        <v>2.1581169905090869</v>
+      </c>
+      <c r="F25">
+        <v>0.47236601791315092</v>
+      </c>
+      <c r="G25">
+        <v>-3.1556844678223275</v>
+      </c>
+      <c r="H25">
+        <v>8.3594393706660792</v>
       </c>
     </row>
   </sheetData>

--- a/Spatial/RANOVA_Number_of_PCs_multcompare_10.xlsx
+++ b/Spatial/RANOVA_Number_of_PCs_multcompare_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8678DE4B-0467-46D9-B2BC-87A8EB0E6473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76882D51-1E10-4DB9-8826-D0DF8E04A8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{5AB80354-20EA-419B-ACF4-E06C5115B6CF}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{5AB80354-20EA-419B-ACF4-E06C5115B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,16 +414,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,154 +461,154 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2.1102366391187228</v>
+        <v>0.44747859941151991</v>
       </c>
       <c r="E2">
-        <v>0.8497261027458114</v>
+        <v>1.2213477747456289</v>
       </c>
       <c r="F2">
-        <v>6.8968408071619969E-2</v>
+        <v>0.72358108168217417</v>
       </c>
       <c r="G2">
-        <v>-0.15671676168045945</v>
+        <v>-2.3689544196743073</v>
       </c>
       <c r="H2">
-        <v>4.3771900399179051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.2639116184973469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.52278148139158964</v>
+        <v>-0.44747859941151991</v>
       </c>
       <c r="E3">
-        <v>0.8497261027458114</v>
+        <v>1.2213477747456289</v>
       </c>
       <c r="F3">
-        <v>0.8146815106314651</v>
+        <v>0.72358108168217417</v>
       </c>
       <c r="G3">
-        <v>-1.7441719194075926</v>
+        <v>-3.2639116184973469</v>
       </c>
       <c r="H3">
-        <v>2.7897348821907721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.3689544196743073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>-2.1102366391187228</v>
+        <v>0.36674491327013048</v>
       </c>
       <c r="E4">
-        <v>0.8497261027458114</v>
+        <v>1.0437639304597339</v>
       </c>
       <c r="F4">
-        <v>6.8968408071619969E-2</v>
+        <v>0.73438705095908952</v>
       </c>
       <c r="G4">
-        <v>-4.3771900399179051</v>
+        <v>-2.0401790265469697</v>
       </c>
       <c r="H4">
-        <v>0.15671676168045945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.7736688530872304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>-1.5874551577271334</v>
+        <v>-0.36674491327013048</v>
       </c>
       <c r="E5">
-        <v>0.8497261027458114</v>
+        <v>1.0437639304597339</v>
       </c>
       <c r="F5">
-        <v>0.19015902107933691</v>
+        <v>0.73438705095908952</v>
       </c>
       <c r="G5">
-        <v>-3.8544085585263157</v>
+        <v>-2.7736688530872304</v>
       </c>
       <c r="H5">
-        <v>0.67949824307204887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.0401790265469697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>-0.52278148139158964</v>
+        <v>0.33298070703514993</v>
       </c>
       <c r="E6">
-        <v>0.8497261027458114</v>
+        <v>2.7907280897089461</v>
       </c>
       <c r="F6">
-        <v>0.8146815106314651</v>
+        <v>0.90796623511136432</v>
       </c>
       <c r="G6">
-        <v>-2.7897348821907721</v>
+        <v>-6.1024498080641036</v>
       </c>
       <c r="H6">
-        <v>1.7441719194075926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.7684112221344028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.5874551577271334</v>
+        <v>-0.33298070703514993</v>
       </c>
       <c r="E7">
-        <v>0.8497261027458114</v>
+        <v>2.7907280897089461</v>
       </c>
       <c r="F7">
-        <v>0.19015902107933691</v>
+        <v>0.90796623511136432</v>
       </c>
       <c r="G7">
-        <v>-0.67949824307204887</v>
+        <v>-6.7684112221344028</v>
       </c>
       <c r="H7">
-        <v>3.8544085585263157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.1024498080641036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -616,48 +617,48 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1.373896962218542</v>
+        <v>0.8083794702322904</v>
       </c>
       <c r="E8">
-        <v>0.73486302180123886</v>
+        <v>2.9870757196433031</v>
       </c>
       <c r="F8">
-        <v>0.18974807618287326</v>
+        <v>0.79352996539765863</v>
       </c>
       <c r="G8">
-        <v>-0.58661739765657472</v>
+        <v>-6.0798294914331272</v>
       </c>
       <c r="H8">
-        <v>3.3344113220936586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.6965884318977089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.35639746954744334</v>
+        <v>-0.8083794702322904</v>
       </c>
       <c r="E9">
-        <v>0.73486302180123886</v>
+        <v>2.9870757196433031</v>
       </c>
       <c r="F9">
-        <v>0.87965545106783427</v>
+        <v>0.79352996539765863</v>
       </c>
       <c r="G9">
-        <v>-1.6041168903276732</v>
+        <v>-7.6965884318977089</v>
       </c>
       <c r="H9">
-        <v>2.3169118294225601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.0798294914331272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -683,7 +684,7 @@
         <v>0.58661739765657472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
         <v>0.94301486720401795</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -735,7 +736,7 @@
         <v>1.6041168903276732</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -761,7 +762,7 @@
         <v>2.9780138525462156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -787,7 +788,7 @@
         <v>9.6293708251581727</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -813,7 +814,7 @@
         <v>6.1646507994748179</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -839,7 +840,7 @@
         <v>1.9825283176820232</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -865,7 +866,7 @@
         <v>2.3412295457367431</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -891,7 +892,7 @@
         <v>5.447248343365378</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -917,7 +918,7 @@
         <v>9.2706695971034527</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -943,7 +944,7 @@
         <v>9.515572408097615</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -969,7 +970,7 @@
         <v>6.9136949566757391</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -995,7 +996,7 @@
         <v>1.9995514303907918</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>3.1556844678223275</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>4.6014288818126676</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1084,7 +1085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1096,7 +1097,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spatial/RANOVA_Number_of_PCs_multcompare_10.xlsx
+++ b/Spatial/RANOVA_Number_of_PCs_multcompare_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\brendan.mcallister\Documents\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76882D51-1E10-4DB9-8826-D0DF8E04A8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3F4E75-42BF-4CD4-824C-8285D18A858D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{5AB80354-20EA-419B-ACF4-E06C5115B6CF}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{5AB80354-20EA-419B-ACF4-E06C5115B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,19 +461,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.44747859941151991</v>
+        <v>-0.93173263464248401</v>
       </c>
       <c r="E2">
-        <v>1.2213477747456289</v>
+        <v>0.95510158975530823</v>
       </c>
       <c r="F2">
-        <v>0.72358108168217417</v>
+        <v>0.35786798054936197</v>
       </c>
       <c r="G2">
-        <v>-2.3689544196743073</v>
+        <v>-3.1342008501582979</v>
       </c>
       <c r="H2">
-        <v>3.2639116184973469</v>
+        <v>1.2707355808733296</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,19 +487,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.44747859941151991</v>
+        <v>0.93173263464248401</v>
       </c>
       <c r="E3">
-        <v>1.2213477747456289</v>
+        <v>0.95510158975530823</v>
       </c>
       <c r="F3">
-        <v>0.72358108168217417</v>
+        <v>0.35786798054936197</v>
       </c>
       <c r="G3">
-        <v>-3.2639116184973469</v>
+        <v>-1.2707355808733296</v>
       </c>
       <c r="H3">
-        <v>2.3689544196743073</v>
+        <v>3.1342008501582979</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,19 +513,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.36674491327013048</v>
+        <v>4.639962052175356E-2</v>
       </c>
       <c r="E4">
-        <v>1.0437639304597339</v>
+        <v>0.73219761872807021</v>
       </c>
       <c r="F4">
-        <v>0.73438705095908952</v>
+        <v>0.95102636672013641</v>
       </c>
       <c r="G4">
-        <v>-2.0401790265469697</v>
+        <v>-1.6420511160518199</v>
       </c>
       <c r="H4">
-        <v>2.7736688530872304</v>
+        <v>1.7348503570953271</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.36674491327013048</v>
+        <v>-4.639962052175356E-2</v>
       </c>
       <c r="E5">
-        <v>1.0437639304597339</v>
+        <v>0.73219761872807021</v>
       </c>
       <c r="F5">
-        <v>0.73438705095908952</v>
+        <v>0.95102636672013641</v>
       </c>
       <c r="G5">
-        <v>-2.7736688530872304</v>
+        <v>-1.7348503570953271</v>
       </c>
       <c r="H5">
-        <v>2.0401790265469697</v>
+        <v>1.6420511160518199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.33298070703514993</v>
+        <v>-1.8139609781700046</v>
       </c>
       <c r="E6">
-        <v>2.7907280897089461</v>
+        <v>1.7912194193307871</v>
       </c>
       <c r="F6">
-        <v>0.90796623511136432</v>
+        <v>0.34085068819307396</v>
       </c>
       <c r="G6">
-        <v>-6.1024498080641036</v>
+        <v>-5.944520366204805</v>
       </c>
       <c r="H6">
-        <v>6.7684112221344028</v>
+        <v>2.3165984098647963</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.33298070703514993</v>
+        <v>1.8139609781700046</v>
       </c>
       <c r="E7">
-        <v>2.7907280897089461</v>
+        <v>1.7912194193307871</v>
       </c>
       <c r="F7">
-        <v>0.90796623511136432</v>
+        <v>0.34085068819307396</v>
       </c>
       <c r="G7">
-        <v>-6.7684112221344028</v>
+        <v>-2.3165984098647963</v>
       </c>
       <c r="H7">
-        <v>6.1024498080641036</v>
+        <v>5.944520366204805</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,19 +617,19 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0.8083794702322904</v>
+        <v>-1.1031098472391752</v>
       </c>
       <c r="E8">
-        <v>2.9870757196433031</v>
+        <v>2.0584801165362889</v>
       </c>
       <c r="F8">
-        <v>0.79352996539765863</v>
+        <v>0.6066113372280445</v>
       </c>
       <c r="G8">
-        <v>-6.0798294914331272</v>
+        <v>-5.8499735082074107</v>
       </c>
       <c r="H8">
-        <v>7.6965884318977089</v>
+        <v>3.6437538137290608</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>-0.8083794702322904</v>
+        <v>1.1031098472391752</v>
       </c>
       <c r="E9">
-        <v>2.9870757196433031</v>
+        <v>2.0584801165362889</v>
       </c>
       <c r="F9">
-        <v>0.79352996539765863</v>
+        <v>0.6066113372280445</v>
       </c>
       <c r="G9">
-        <v>-7.6965884318977089</v>
+        <v>-3.6437538137290608</v>
       </c>
       <c r="H9">
-        <v>6.0798294914331272</v>
+        <v>5.8499735082074107</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
